--- a/Sprint Backlog and Burndown - 2.xlsx
+++ b/Sprint Backlog and Burndown - 2.xlsx
@@ -47,22 +47,22 @@
     <t>Uppskattning</t>
   </si>
   <si>
-    <t>Ändra info av befintlig medlem.</t>
-  </si>
-  <si>
-    <t>Ta bort befintlig medlem.</t>
-  </si>
-  <si>
-    <t>Implementera felmeddelanden</t>
-  </si>
-  <si>
-    <t>Finjustera källkoden och ändra om</t>
-  </si>
-  <si>
     <t>Testa koden som blackbox och eventuellt whitebox</t>
   </si>
   <si>
     <t>Sprint Backlog and Burndown - 2</t>
+  </si>
+  <si>
+    <t>Ta bort medlem.</t>
+  </si>
+  <si>
+    <t>Ändra info om medlem.</t>
+  </si>
+  <si>
+    <t>Lägga till felmeddelanden</t>
+  </si>
+  <si>
+    <t>Snygga till källkoden och ändra om</t>
   </si>
 </sst>
 </file>
@@ -124,9 +124,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,14 +434,14 @@
   <dimension ref="B2:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
@@ -463,15 +463,15 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4">
         <v>5</v>
       </c>
@@ -487,15 +487,17 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="4">
+        <v>4</v>
+      </c>
+      <c r="O4" s="4"/>
       <c r="P4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>9</v>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -512,15 +514,15 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>10</v>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -537,15 +539,15 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>11</v>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -562,15 +564,15 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
       <c r="P7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>12</v>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -587,8 +589,8 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="2" t="s">
         <v>4</v>
       </c>
@@ -613,8 +615,8 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -636,8 +638,8 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>

--- a/Sprint Backlog and Burndown - 2.xlsx
+++ b/Sprint Backlog and Burndown - 2.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="B2:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,9 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>7</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" t="s">
         <v>1</v>
@@ -528,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -553,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -604,7 +606,7 @@
         <v>18</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <v>4</v>

--- a/Sprint Backlog and Burndown - 2.xlsx
+++ b/Sprint Backlog and Burndown - 2.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="B2:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,12 +536,14 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="2" t="s">
         <v>2</v>
@@ -586,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -612,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>

--- a/Sprint Backlog and Burndown - 2.xlsx
+++ b/Sprint Backlog and Burndown - 2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Dag 1</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Snygga till källkoden och ändra om</t>
+  </si>
+  <si>
+    <t>Lägga till samma funktioner fast med båtar</t>
   </si>
 </sst>
 </file>
@@ -120,13 +123,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,6 +146,1019 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uppskattning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$C$35:$M$35</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>Dag 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dag 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dag 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dag 4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dag 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$36:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Idealt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$C$35:$M$35</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>Dag 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dag 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dag 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dag 4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dag 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$37:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1903033424"/>
+        <c:axId val="1903024720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1903033424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903024720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1903024720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903033424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,7 +1451,7 @@
   <dimension ref="B2:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +1585,9 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5">
+        <v>4</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" t="s">
         <v>3</v>
@@ -593,28 +1612,33 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="I9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>4</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -624,20 +1648,20 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="I10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -645,13 +1669,93 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C36" s="2"/>
+      <c r="I36">
+        <v>18</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C37" s="2"/>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>15</v>
+      </c>
+      <c r="K37">
+        <v>12</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -666,6 +1770,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Sprint Backlog and Burndown - 2.xlsx
+++ b/Sprint Backlog and Burndown - 2.xlsx
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,14 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,11 +396,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1903033424"/>
-        <c:axId val="1903024720"/>
+        <c:axId val="1507276240"/>
+        <c:axId val="1507287120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1903033424"/>
+        <c:axId val="1507276240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +443,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1903024720"/>
+        <c:crossAx val="1507287120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -438,7 +451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1903024720"/>
+        <c:axId val="1507287120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +502,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1903033424"/>
+        <c:crossAx val="1507276240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1451,7 +1464,7 @@
   <dimension ref="B2:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,15 +1493,15 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4">
         <v>5</v>
       </c>
